--- a/app/src/test/dhcp_info_test.xlsx
+++ b/app/src/test/dhcp_info_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verke\Desktop\Github\MerakiParser\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verke\Desktop\Github\MerakiParser\app\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E827BC84-983C-4B3B-9DCE-03815A953C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DAA65-C0E9-44D8-B4C3-3B22F4DCD66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1845" windowWidth="23040" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19965" yWindow="2010" windowWidth="24375" windowHeight="17340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DhcpInfo" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>c4</t>
   </si>
   <si>
-    <t>t1</t>
-  </si>
-  <si>
     <t>t2</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>8.8.8.8</t>
+  </si>
+  <si>
+    <t>ip</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,10 +668,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,10 +696,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
